--- a/pred_ohlcv/54_21/2019-11-01 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ZIL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1480548.671848352</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2135584.567348352</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2892646.770848352</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3131428.676048351</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1654342.505348351</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1368443.231448351</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1233780.381348351</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1197629.082748351</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1197629.082748351</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1161246.598048351</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1115758.187448351</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1035625.346548351</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1035625.346548351</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>974491.7763483515</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>979177.7840483515</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>611634.0309483514</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>611634.0309483514</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2674474.532448351</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2780227.029548351</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3236872.895848352</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3148318.189448352</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3002663.609048352</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2788355.419048352</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2788366.419048352</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2400861.261448352</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 ZIL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1480548.671848352</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2135584.567348352</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2892646.770848352</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3131428.676048351</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -886,7 +886,7 @@
         <v>1368443.231448351</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>1233780.381348351</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1197629.082748351</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1197629.082748351</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>1161246.598048351</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>1115758.187448351</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1035625.346548351</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1035625.346548351</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>974491.7763483515</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>979177.7840483515</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>655100.6886483514</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>666625.8357483513</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>2674474.532448351</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>2749835.552948351</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>2780227.029548351</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>3236872.895848352</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>3148318.189448352</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>3002663.609048352</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>2788355.419048352</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>2788366.419048352</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>2400861.261448352</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
